--- a/Resources/SalaryCap.xlsx
+++ b/Resources/SalaryCap.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\PycharmProjects\MQP_Stat\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Desktop\MQP\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A305B894-E306-48FA-8C2B-26FDE3EF731E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42059699-4FD0-45EC-9E52-CC725E9374A5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -982,20 +989,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.05078125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1006,7 +1014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1025,7 @@
         <v>7934034</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1036,7 @@
         <v>9153509</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1047,7 @@
         <v>10317292</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1058,7 @@
         <v>12354015</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1061,7 +1069,7 @@
         <v>13829137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +1080,7 @@
         <v>17783913</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1091,7 @@
         <v>20658962</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1102,7 @@
         <v>21113943</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>22972126</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1116,7 +1124,7 @@
         <v>24268416</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1135,7 @@
         <v>24833276</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,7 +1146,7 @@
         <v>34761086</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1149,7 +1157,7 @@
         <v>35973807</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1160,7 +1168,7 @@
         <v>39119783</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1171,7 +1179,7 @@
         <v>42686775</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1182,7 +1190,7 @@
         <v>46798454</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1201,7 @@
         <v>47522364</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1204,7 +1212,7 @@
         <v>56008788</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1215,7 +1223,7 @@
         <v>51890436</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>55016264</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,7 +1245,7 @@
         <v>53243484</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>58202129</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1267,7 @@
         <v>60741551</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,7 +1278,7 @@
         <v>61244588</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1281,7 +1289,7 @@
         <v>64832889</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1292,7 +1300,7 @@
         <v>62718922</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1303,7 +1311,7 @@
         <v>61160859</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1314,7 +1322,7 @@
         <v>59928600</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1325,7 +1333,7 @@
         <v>59063916</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1344,7 @@
         <v>58753235</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1347,7 +1355,7 @@
         <v>63065000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1358,7 +1366,7 @@
         <v>69126577</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1369,7 +1377,7 @@
         <v>91334866</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
